--- a/Alt/VO Elektrizitäts- und Wasserwirtschaft/VO Elektrizitäts- und Wasserwirtschaft/Neu/20231215_Einheit5_EWW/20231215_Einheit5_EWW/Input-Output_Kurzfristig.xlsx
+++ b/Alt/VO Elektrizitäts- und Wasserwirtschaft/VO Elektrizitäts- und Wasserwirtschaft/Neu/20231215_Einheit5_EWW/20231215_Einheit5_EWW/Input-Output_Kurzfristig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\Studium\Semester 3\VO Elektrizitäts- und Wasserwirtschaft\Neu\20231215_Einheit5_EWW\20231215_Einheit5_EWW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E370_\Documents\Uni\electricity-and-water-management\Alt\VO Elektrizitäts- und Wasserwirtschaft\VO Elektrizitäts- und Wasserwirtschaft\Neu\20231215_Einheit5_EWW\20231215_Einheit5_EWW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F437AC9D-3039-46B9-99F6-CB29AD76831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408CD2E-C2EC-46FC-9ED9-FF2F9A3906AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="177">
   <si>
     <t>Preisprognose</t>
   </si>
@@ -753,7 +753,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -839,7 +839,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1595,7 +1595,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -1701,505 +1701,505 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="168"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40.121582755911405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>40.237484871213688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>40.339518928562782</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>40.437471177244483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>40.557549778416472</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>40.713640136399917</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>40.633789659843146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40.566593320202266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>40.503426576059724</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>40.441225488997411</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>40.37815721428121</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>40.317781507196472</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>40.254893236076612</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>40.190379348716775</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>40.128594783426664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>40.068806691144445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>40.009096588364734</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>39.95100433749738</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>39.892197572669737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>39.832866838475816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>39.768309422078318</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>39.693582725036173</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>39.617046152322445</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>39.785314352386202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>39.95554236721518</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>40.11939744406552</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>40.282031950525486</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>40.44533343412359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>40.611447711051198</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>40.531383120184422</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>40.463336482184459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>40.406293074626042</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>40.34932633176517</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>40.292791175148132</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>40.235569933664351</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>40.179056790566158</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>40.121914872522751</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>40.063943955786662</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>40.00731952336691</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>39.950164232452892</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>39.894164211180751</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>39.83949517843584</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>39.783240567556206</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>39.724050148984816</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>39.65876866235503</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>39.582295098018839</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>39.503122196591228</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>39.672200864314206</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>39.836087177025327</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>39.991850235315319</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>40.137485516302654</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>40.277337314809344</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>40.427254137961945</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>40.591290058904974</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>40.530179900352081</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>40.471537121820553</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>40.413981142195269</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>40.354774793898194</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>40.294994861469434</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>40.231203450951675</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>40.161773411425322</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>40.091984141464884</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>40.029825398809386</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>39.970820803570469</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>39.913689166998587</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>39.85571716969222</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>39.797068831904646</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>39.733538271117176</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>39.672572834892442</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>39.59956604200724</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>39.523127190936322</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>39.692227166736636</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>39.858679307185291</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>40.022690330583515</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>40.1830865521597</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>40.341755042293826</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>40.504157324823169</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>40.673859612267009</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>40.599062785651213</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>40.537386639794327</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>40.479831707347351</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>40.42294950518199</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>40.365415506264107</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>40.307860573817131</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>40.250024337439193</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>40.192178429918656</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>40.135037540231764</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>40.078204085141472</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>40.021964298618933</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>39.968957971294245</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>39.913382894391887</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>39.857382873119747</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>39.798736759190476</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>39.728543796134787</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>39.652107113464659</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>39.820757103027354</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>39.746215328238328</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>39.791213302349661</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>39.961418049364696</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>40.13060313847221</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>40.301234740224828</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>40.223163738008672</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>40.153943794992777</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>40.097053458077681</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>40.043316391986181</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>39.989285098597072</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>39.934551602832869</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>39.880663503387417</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0</c:v>
+                  <c:v>39.826150222735805</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0</c:v>
+                  <c:v>39.770599100233028</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>39.715656154580202</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0</c:v>
+                  <c:v>39.660159550445833</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0</c:v>
+                  <c:v>39.605070835624147</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>39.55287264362903</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0</c:v>
+                  <c:v>39.498259628562536</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0</c:v>
+                  <c:v>39.442073128159713</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0</c:v>
+                  <c:v>39.384115174384831</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0</c:v>
+                  <c:v>39.317811800627254</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0</c:v>
+                  <c:v>39.251149044925796</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0</c:v>
+                  <c:v>39.172481727376415</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0</c:v>
+                  <c:v>39.092084888087136</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0</c:v>
+                  <c:v>39.2616585360052</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0</c:v>
+                  <c:v>39.426851161671074</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0</c:v>
+                  <c:v>39.591274188529326</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0</c:v>
+                  <c:v>39.755465383587172</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0</c:v>
+                  <c:v>39.920545906168996</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0</c:v>
+                  <c:v>40.088044554546478</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0</c:v>
+                  <c:v>40.008443522414773</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0</c:v>
+                  <c:v>39.936094550351235</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0</c:v>
+                  <c:v>39.872087905333068</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0</c:v>
+                  <c:v>39.811034263682437</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0</c:v>
+                  <c:v>39.749112884032002</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0</c:v>
+                  <c:v>39.685310548475357</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0</c:v>
+                  <c:v>39.61824776130964</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0</c:v>
+                  <c:v>39.551367788026674</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0</c:v>
+                  <c:v>39.486929556500939</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0</c:v>
+                  <c:v>39.426030070341305</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0</c:v>
+                  <c:v>39.368467806641846</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>39.310126604288229</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0</c:v>
+                  <c:v>39.249158722116157</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0</c:v>
+                  <c:v>39.179609419871369</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0</c:v>
+                  <c:v>39.102793338535086</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0</c:v>
+                  <c:v>39.272424797087844</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0</c:v>
+                  <c:v>39.435640706010197</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0</c:v>
+                  <c:v>39.590918285743591</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0</c:v>
+                  <c:v>39.745090076002867</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0</c:v>
+                  <c:v>39.900647898889751</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0</c:v>
+                  <c:v>40.05241159873917</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0</c:v>
+                  <c:v>40.203834077722718</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0</c:v>
+                  <c:v>40.355631350569659</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0</c:v>
+                  <c:v>40.508157347348551</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0</c:v>
+                  <c:v>40.664078563252858</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0</c:v>
+                  <c:v>40.82844915463599</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0</c:v>
+                  <c:v>40.74987655002915</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0</c:v>
+                  <c:v>40.673433361740969</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0</c:v>
+                  <c:v>40.600033238635319</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0</c:v>
+                  <c:v>40.526388824027592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0</c:v>
+                  <c:v>40.449891373717669</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0</c:v>
+                  <c:v>40.374071348221257</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0</c:v>
+                  <c:v>40.300037864434223</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0</c:v>
+                  <c:v>40.230641812248436</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0</c:v>
+                  <c:v>40.1689178173404</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0</c:v>
+                  <c:v>40.109210038768104</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0</c:v>
+                  <c:v>40.047400193049498</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0</c:v>
+                  <c:v>39.98166034631366</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0</c:v>
+                  <c:v>39.907391992879198</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0</c:v>
+                  <c:v>39.830724686090988</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>40</c:v>
@@ -2361,7 +2361,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -2477,6 +2477,510 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>139.01273505531415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>144.35299810568591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.18208038700223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155.09706360152373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.42676254440573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.53712022767405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.212335044138044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.967764981841484</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.997817549851717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.793156725828254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.874976571721504</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.515988367659297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64.650421411156628</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.678383758550908</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.273544255112725</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.782936700862749</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.685644504413865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>58.667368184806577</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.558727026160732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60.21238077288632</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.732686396052955</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.10621617719022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>81.27014677712296</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>89.733633872606873</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87.450673311039182</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>94.818204840080469</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.200708489519229</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>95.445243393167331</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92.242708536050387</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85.461753782113348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>71.008294179010861</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57.349461713267452</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57.252517753014672</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.706768783698081</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.574336075833074</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.678932272703548</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.474030084977606</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>58.516003401652959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.819659724997884</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57.490940332829879</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>56.030080017331819</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54.347019847363185</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.352013391879566</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>60.037336508290117</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67.624516350285006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>81.194812455354167</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>84.422204382523688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88.78953153433379</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>94.782824912901319</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>103.89707994869954</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>114.85191064184815</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>120.88610420528984</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>110.28436190100096</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>94.613368134153575</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>62.432219324741446</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>59.354153507623309</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.997618787747278</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60.05720890074133</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>60.772757253116303</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>65.777091192339199</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>72.701193693925447</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>73.140792043356043</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.74033191974695</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>59.805521205107951</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57.461028969750387</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>58.517351417119848</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59.361088700358835</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>65.451680176906848</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>62.251677678366747</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>77.049857670036261</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81.15330844592043</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>88.764710055762492</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91.849136088579527</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>94.641568840005789</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>98.735946968778151</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>100.69289680365304</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>96.46374160428951</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>88.063085722508418</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.190064771199161</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.138290606128344</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>57.996294610967269</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>57.145614444348951</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>57.96982376744689</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>57.996294610967269</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>58.347989150471001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>58.360053937089447</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>57.472729708714311</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>57.08397284581126</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56.333267711916868</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>52.244497391369059</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55.492729823391699</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>56.030080017331819</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>59.35831442879271</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>73.634800349762443</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>81.150715854122907</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>89.288892673406977</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>78.885118712641074</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>86.553758609300644</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>87.477777659127867</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>88.665562765393389</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>86.980540599430043</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>83.10474735541959</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>72.444093875934158</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>57.155900989261639</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>53.168530384832458</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53.540589066388911</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>54.428534554655144</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>53.359514917881633</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54.150068379146354</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55.462439032003388</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>54.693387900821534</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.393499523862346</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>54.877715772246702</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>51.222594980253582</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>54.276184433361578</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>56.265886405567613</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58.499832058996709</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>68.875022577092679</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>69.314806332462538</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>83.817716216780681</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>85.848785280535182</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>88.2129360906291</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>93.3032032200461</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>94.174904818364851</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>94.437493778933572</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>93.430179037286862</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>90.630073771434112</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>84.921760753736123</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>76.263351377019205</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>66.045597037668159</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>62.361714277508547</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>63.444220681995979</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>65.790720219263278</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>69.804333818789644</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>69.580620365019186</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>66.584002822169211</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>62.169404725170843</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>58.005565118417863</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.977936096256222</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>62.254729006831745</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>72.84713816076156</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>81.604333965103947</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>88.145593298138493</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>95.542171274147336</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>104.43100261740484</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>105.64713473905154</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>104.12279503466777</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>108.29551959693704</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>108.67078963275959</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>108.2585964739923</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>107.45715587231928</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>103.72314037018192</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>94.234296915928013</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>83.704475159513464</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>81.158494126513801</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>77.520132680229352</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>77.812213437456123</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>81.223371096302202</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>80.413425802201886</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>78.277393845051165</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>72.65960262201817</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>63.19798247663222</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>60.682745046960228</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>63.305081684338212</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>68.185421905453239</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>78.558209607723995</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>81.426455560512736</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>88.560461167442583</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2557,6 +3061,510 @@
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>153.01467391304348</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>306.02934782608696</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2854,9 +3862,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2894,7 +3902,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3000,7 +4008,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3142,7 +4150,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3156,15 +4164,15 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -3180,7 +4188,7 @@
         <v>194.73</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3188,7 +4196,7 @@
         <v>187.97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -3196,7 +4204,7 @@
         <v>181.14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3204,7 +4212,7 @@
         <v>175.78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +4220,7 @@
         <v>192.89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -3220,7 +4228,7 @@
         <v>257.33999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -3228,7 +4236,7 @@
         <v>310.10000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -3236,7 +4244,7 @@
         <v>375.05</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -3244,7 +4252,7 @@
         <v>402.81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -3252,7 +4260,7 @@
         <v>410.19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -3260,7 +4268,7 @@
         <v>403.55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -3268,7 +4276,7 @@
         <v>424.93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -3276,7 +4284,7 @@
         <v>404.91</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -3284,7 +4292,7 @@
         <v>392.96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -3292,7 +4300,7 @@
         <v>413.46</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -3300,7 +4308,7 @@
         <v>429.91</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
@@ -3308,7 +4316,7 @@
         <v>430.58</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -3316,7 +4324,7 @@
         <v>444.98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -3324,7 +4332,7 @@
         <v>438.5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -3332,7 +4340,7 @@
         <v>433.87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -3340,7 +4348,7 @@
         <v>392.65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
@@ -3348,7 +4356,7 @@
         <v>333.11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -3356,7 +4364,7 @@
         <v>324.56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -3364,7 +4372,7 @@
         <v>295.08</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
@@ -3372,7 +4380,7 @@
         <v>302.47000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
@@ -3380,7 +4388,7 @@
         <v>279.89999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
@@ -3388,7 +4396,7 @@
         <v>276.05</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -3396,7 +4404,7 @@
         <v>278.14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -3404,7 +4412,7 @@
         <v>287.38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -3412,7 +4420,7 @@
         <v>309.23</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -3420,7 +4428,7 @@
         <v>369.73</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -3428,7 +4436,7 @@
         <v>454.93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -3436,7 +4444,7 @@
         <v>455.68</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -3444,7 +4452,7 @@
         <v>459.95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -3452,7 +4460,7 @@
         <v>453.2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -3460,7 +4468,7 @@
         <v>460.17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -3468,7 +4476,7 @@
         <v>453.97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -3476,7 +4484,7 @@
         <v>446.1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -3484,7 +4492,7 @@
         <v>459.06</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
@@ -3492,7 +4500,7 @@
         <v>453.84</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
@@ -3500,7 +4508,7 @@
         <v>465.36</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
@@ -3508,7 +4516,7 @@
         <v>479.4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
@@ -3516,7 +4524,7 @@
         <v>462.77</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
@@ -3524,7 +4532,7 @@
         <v>435.1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
@@ -3532,7 +4540,7 @@
         <v>387.63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>48</v>
       </c>
@@ -3540,7 +4548,7 @@
         <v>324.85000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>49</v>
       </c>
@@ -3548,7 +4556,7 @@
         <v>312.89</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>50</v>
       </c>
@@ -3556,7 +4564,7 @@
         <v>298.08999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>51</v>
       </c>
@@ -3564,7 +4572,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -3572,7 +4580,7 @@
         <v>256.49</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -3580,7 +4588,7 @@
         <v>233.17</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>54</v>
       </c>
@@ -3588,7 +4596,7 @@
         <v>222.13</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>55</v>
       </c>
@@ -3596,7 +4604,7 @@
         <v>242.33</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>56</v>
       </c>
@@ -3604,7 +4612,7 @@
         <v>280.48</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
@@ -3612,7 +4620,7 @@
         <v>418.87</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>58</v>
       </c>
@@ -3620,7 +4628,7 @@
         <v>439.97</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>59</v>
       </c>
@@ -3628,7 +4636,7 @@
         <v>449.98</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>60</v>
       </c>
@@ -3636,7 +4644,7 @@
         <v>434.96</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>61</v>
       </c>
@@ -3644,7 +4652,7 @@
         <v>429.98</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
@@ -3652,7 +4660,7 @@
         <v>398.18</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
@@ -3660,7 +4668,7 @@
         <v>361.4</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -3668,7 +4676,7 @@
         <v>359.3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>65</v>
       </c>
@@ -3676,7 +4684,7 @@
         <v>410.52</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +4692,7 @@
         <v>436.74</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>67</v>
       </c>
@@ -3692,7 +4700,7 @@
         <v>454.07</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>68</v>
       </c>
@@ -3700,7 +4708,7 @@
         <v>446.09</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>69</v>
       </c>
@@ -3708,7 +4716,7 @@
         <v>439.92</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>70</v>
       </c>
@@ -3716,7 +4724,7 @@
         <v>400.1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>71</v>
       </c>
@@ -3724,7 +4732,7 @@
         <v>420.05</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>72</v>
       </c>
@@ -3732,7 +4740,7 @@
         <v>341.68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>73</v>
       </c>
@@ -3740,7 +4748,7 @@
         <v>325.01</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>74</v>
       </c>
@@ -3748,7 +4756,7 @@
         <v>298.17</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>75</v>
       </c>
@@ -3756,7 +4764,7 @@
         <v>288.56</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>76</v>
       </c>
@@ -3764,7 +4772,7 @@
         <v>280.39999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>77</v>
       </c>
@@ -3772,7 +4780,7 @@
         <v>269.27</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -3780,7 +4788,7 @@
         <v>264.27</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -3788,7 +4796,7 @@
         <v>275.33</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -3796,7 +4804,7 @@
         <v>300.45</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>81</v>
       </c>
@@ -3804,7 +4812,7 @@
         <v>332.77</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
@@ -3812,7 +4820,7 @@
         <v>414.32</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>83</v>
       </c>
@@ -3820,7 +4828,7 @@
         <v>449.99</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
@@ -3828,7 +4836,7 @@
         <v>456.51</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -3836,7 +4844,7 @@
         <v>450.19</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>86</v>
       </c>
@@ -3844,7 +4852,7 @@
         <v>449.99</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>87</v>
       </c>
@@ -3852,7 +4860,7 @@
         <v>447.35</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>88</v>
       </c>
@@ -3860,7 +4868,7 @@
         <v>447.26</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>89</v>
       </c>
@@ -3868,7 +4876,7 @@
         <v>453.98</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>90</v>
       </c>
@@ -3876,7 +4884,7 @@
         <v>456.99</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>91</v>
       </c>
@@ -3884,7 +4892,7 @@
         <v>462.92</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>92</v>
       </c>
@@ -3892,7 +4900,7 @@
         <v>498.21</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
@@ -3900,7 +4908,7 @@
         <v>469.75</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -3908,7 +4916,7 @@
         <v>465.36</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -3916,7 +4924,7 @@
         <v>439.94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -3924,7 +4932,7 @@
         <v>356.97</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
@@ -3932,7 +4940,7 @@
         <v>325.02</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -3940,7 +4948,7 @@
         <v>296.49</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
@@ -3948,7 +4956,7 @@
         <v>334.01</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
@@ -3956,7 +4964,7 @@
         <v>305.48</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
@@ -3964,7 +4972,7 @@
         <v>302.38</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
@@ -3972,7 +4980,7 @@
         <v>298.49</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
@@ -3980,7 +4988,7 @@
         <v>304.04000000000002</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
@@ -3988,7 +4996,7 @@
         <v>317.66000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -3996,7 +5004,7 @@
         <v>362.64</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -4004,7 +5012,7 @@
         <v>456.43</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -4012,7 +5020,7 @@
         <v>489.76</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -4020,7 +5028,7 @@
         <v>486.44</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -4028,7 +5036,7 @@
         <v>478.7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -4036,7 +5044,7 @@
         <v>488.05</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -4044,7 +5052,7 @@
         <v>481.1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -4052,7 +5060,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -4060,7 +5068,7 @@
         <v>476.44</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -4068,7 +5076,7 @@
         <v>470.57</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -4076,7 +5084,7 @@
         <v>474.88</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -4084,7 +5092,7 @@
         <v>507.91</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
@@ -4092,7 +5100,7 @@
         <v>480.01</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -4100,7 +5108,7 @@
         <v>463.46</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -4108,7 +5116,7 @@
         <v>446.22</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
@@ -4116,7 +5124,7 @@
         <v>380.81</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
@@ -4124,7 +5132,7 @@
         <v>378.47</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>122</v>
       </c>
@@ -4132,7 +5140,7 @@
         <v>315.06</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>123</v>
       </c>
@@ -4140,7 +5148,7 @@
         <v>307.89</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>124</v>
       </c>
@@ -4148,7 +5156,7 @@
         <v>299.95999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>125</v>
       </c>
@@ -4156,7 +5164,7 @@
         <v>284.25</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>126</v>
       </c>
@@ -4164,7 +5172,7 @@
         <v>281.73</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>127</v>
       </c>
@@ -4172,7 +5180,7 @@
         <v>280.98</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>128</v>
       </c>
@@ -4180,7 +5188,7 @@
         <v>283.88</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>129</v>
       </c>
@@ -4188,7 +5196,7 @@
         <v>292.27999999999997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>130</v>
       </c>
@@ -4196,7 +5204,7 @@
         <v>311.12</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>131</v>
       </c>
@@ -4204,7 +5212,7 @@
         <v>345.08</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>132</v>
       </c>
@@ -4212,7 +5220,7 @@
         <v>396.61</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>133</v>
       </c>
@@ -4220,7 +5228,7 @@
         <v>419.33</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -4228,7 +5236,7 @@
         <v>412.38</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>135</v>
       </c>
@@ -4236,7 +5244,7 @@
         <v>398.1</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>136</v>
       </c>
@@ -4244,7 +5252,7 @@
         <v>375.9</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>137</v>
       </c>
@@ -4252,7 +5260,7 @@
         <v>377.07</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>138</v>
       </c>
@@ -4260,7 +5268,7 @@
         <v>393.5</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>139</v>
       </c>
@@ -4268,7 +5276,7 @@
         <v>420.59</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>140</v>
       </c>
@@ -4276,7 +5284,7 @@
         <v>449.92</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>141</v>
       </c>
@@ -4284,7 +5292,7 @@
         <v>442.7</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>142</v>
       </c>
@@ -4292,7 +5300,7 @@
         <v>420.03</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>143</v>
       </c>
@@ -4300,7 +5308,7 @@
         <v>360.7</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>144</v>
       </c>
@@ -4308,7 +5316,7 @@
         <v>323.27999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>145</v>
       </c>
@@ -4316,7 +5324,7 @@
         <v>300.18</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>146</v>
       </c>
@@ -4324,7 +5332,7 @@
         <v>277.87</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -4332,7 +5340,7 @@
         <v>255.24</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -4340,7 +5348,7 @@
         <v>252.44</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>149</v>
       </c>
@@ -4348,7 +5356,7 @@
         <v>255.96</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>150</v>
       </c>
@@ -4356,7 +5364,7 @@
         <v>246.56</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>151</v>
       </c>
@@ -4364,7 +5372,7 @@
         <v>245.75</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>152</v>
       </c>
@@ -4372,7 +5380,7 @@
         <v>246.64</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -4380,7 +5388,7 @@
         <v>248.39</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>154</v>
       </c>
@@ -4388,7 +5396,7 @@
         <v>256.89999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>155</v>
       </c>
@@ -4396,7 +5404,7 @@
         <v>281.56</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>156</v>
       </c>
@@ -4404,7 +5412,7 @@
         <v>315.47000000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>157</v>
       </c>
@@ -4412,7 +5420,7 @@
         <v>324.99</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>158</v>
       </c>
@@ -4420,7 +5428,7 @@
         <v>339.68</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>159</v>
       </c>
@@ -4428,7 +5436,7 @@
         <v>338.45</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>160</v>
       </c>
@@ -4436,7 +5444,7 @@
         <v>324.74</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>161</v>
       </c>
@@ -4444,7 +5452,7 @@
         <v>327.89</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>162</v>
       </c>
@@ -4452,7 +5460,7 @@
         <v>336.51</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>163</v>
       </c>
@@ -4460,7 +5468,7 @@
         <v>361.6</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>164</v>
       </c>
@@ -4468,7 +5476,7 @@
         <v>413.94</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>165</v>
       </c>
@@ -4476,7 +5484,7 @@
         <v>430.6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>166</v>
       </c>
@@ -4484,7 +5492,7 @@
         <v>413.26</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>167</v>
       </c>
@@ -4492,7 +5500,7 @@
         <v>384.54</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>168</v>
       </c>
@@ -4500,7 +5508,7 @@
         <v>335.35</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>169</v>
       </c>
@@ -4508,7 +5516,7 @@
         <v>323.95999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>170</v>
       </c>
@@ -4534,23 +5542,23 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="258" max="258" width="16.42578125" customWidth="1"/>
-    <col min="259" max="259" width="15.7109375" customWidth="1"/>
-    <col min="260" max="260" width="13.5703125" customWidth="1"/>
-    <col min="514" max="514" width="16.42578125" customWidth="1"/>
-    <col min="515" max="515" width="15.7109375" customWidth="1"/>
-    <col min="516" max="516" width="13.5703125" customWidth="1"/>
-    <col min="770" max="770" width="16.42578125" customWidth="1"/>
-    <col min="771" max="771" width="15.7109375" customWidth="1"/>
-    <col min="772" max="772" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="258" max="258" width="16.44140625" customWidth="1"/>
+    <col min="259" max="259" width="15.6640625" customWidth="1"/>
+    <col min="260" max="260" width="13.5546875" customWidth="1"/>
+    <col min="514" max="514" width="16.44140625" customWidth="1"/>
+    <col min="515" max="515" width="15.6640625" customWidth="1"/>
+    <col min="516" max="516" width="13.5546875" customWidth="1"/>
+    <col min="770" max="770" width="16.44140625" customWidth="1"/>
+    <col min="771" max="771" width="15.6640625" customWidth="1"/>
+    <col min="772" max="772" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -4567,10 +5575,10 @@
         <v>174</v>
       </c>
       <c r="G1" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10159.335128471255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="9" t="s">
         <v>175</v>
@@ -4582,1346 +5590,2354 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="14">
+        <v>139.01273505531415</v>
+      </c>
+      <c r="C3" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+        <v>40.121582755911405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="14">
+        <v>144.35299810568591</v>
+      </c>
+      <c r="C4" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
+        <v>40.237484871213688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14">
+        <v>150.18208038700223</v>
+      </c>
+      <c r="C5" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
+        <v>40.339518928562782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14">
+        <v>155.09706360152373</v>
+      </c>
+      <c r="C6" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="13"/>
+        <v>40.437471177244483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14">
+        <v>140.42676254440573</v>
+      </c>
+      <c r="C7" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D7" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
+        <v>40.557549778416472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14">
+        <v>103.53712022767405</v>
+      </c>
+      <c r="C8" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="13"/>
+        <v>40.713640136399917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14">
+        <v>85.212335044138044</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
       <c r="D9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="13"/>
+        <v>40.633789659843146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14">
+        <v>69.967764981841484</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
       <c r="D10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
+        <v>40.566593320202266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14">
+        <v>64.997817549851717</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
       <c r="D11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="13"/>
+        <v>40.503426576059724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="14">
+        <v>63.793156725828254</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
       <c r="D12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="13"/>
+        <v>40.441225488997411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="14">
+        <v>64.874976571721504</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0</v>
+      </c>
       <c r="D13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
+        <v>40.37815721428121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="14">
+        <v>61.515988367659297</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0</v>
+      </c>
       <c r="D14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
+        <v>40.317781507196472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="14">
+        <v>64.650421411156628</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0</v>
+      </c>
       <c r="D15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
+        <v>40.254893236076612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="14">
+        <v>66.678383758550908</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0</v>
+      </c>
       <c r="D16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
+        <v>40.190379348716775</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="14">
+        <v>63.273544255112725</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0</v>
+      </c>
       <c r="D17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
+        <v>40.128594783426664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="14">
+        <v>60.782936700862749</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
       <c r="D18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
+        <v>40.068806691144445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="14">
+        <v>60.685644504413865</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
       <c r="D19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+        <v>40.009096588364734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="14">
+        <v>58.667368184806577</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0</v>
+      </c>
       <c r="D20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
+        <v>39.95100433749738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="14">
+        <v>59.558727026160732</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0</v>
+      </c>
       <c r="D21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="13"/>
+        <v>39.892197572669737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="14">
+        <v>60.21238077288632</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
       <c r="D22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="13"/>
+        <v>39.832866838475816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="14">
+        <v>66.732686396052955</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
       <c r="D23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
+        <v>39.768309422078318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="14">
+        <v>79.10621617719022</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
       <c r="D24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
+        <v>39.693582725036173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="14">
+        <v>81.27014677712296</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0</v>
+      </c>
       <c r="D25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
+        <v>39.617046152322445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="14">
+        <v>89.733633872606873</v>
+      </c>
+      <c r="C26" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
+        <v>39.785314352386202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="14">
+        <v>87.450673311039182</v>
+      </c>
+      <c r="C27" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="13"/>
+        <v>39.95554236721518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="14">
+        <v>94.818204840080469</v>
+      </c>
+      <c r="C28" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D28" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13"/>
+        <v>40.11939744406552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14">
+        <v>96.200708489519229</v>
+      </c>
+      <c r="C29" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="13"/>
+        <v>40.282031950525486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14">
+        <v>95.445243393167331</v>
+      </c>
+      <c r="C30" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13"/>
+        <v>40.44533343412359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="14">
+        <v>92.242708536050387</v>
+      </c>
+      <c r="C31" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13"/>
+        <v>40.611447711051198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="14">
+        <v>85.461753782113348</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
       <c r="D32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="13"/>
+        <v>40.531383120184422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="14">
+        <v>71.008294179010861</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0</v>
+      </c>
       <c r="D33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13"/>
+        <v>40.463336482184459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="14">
+        <v>57.349461713267452</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0</v>
+      </c>
       <c r="D34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13"/>
+        <v>40.406293074626042</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="14">
+        <v>57.252517753014672</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0</v>
+      </c>
       <c r="D35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13"/>
+        <v>40.34932633176517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="14">
+        <v>56.706768783698081</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0</v>
+      </c>
       <c r="D36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13"/>
+        <v>40.292791175148132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="14">
+        <v>57.574336075833074</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0</v>
+      </c>
       <c r="D37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13"/>
+        <v>40.235569933664351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="14">
+        <v>56.678932272703548</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0</v>
+      </c>
       <c r="D38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13"/>
+        <v>40.179056790566158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="14">
+        <v>57.474030084977606</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0</v>
+      </c>
       <c r="D39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13"/>
+        <v>40.121914872522751</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="14">
+        <v>58.516003401652959</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0</v>
+      </c>
       <c r="D40" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="13"/>
+        <v>40.063943955786662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="14">
+        <v>56.819659724997884</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0</v>
+      </c>
       <c r="D41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13"/>
+        <v>40.00731952336691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="14">
+        <v>57.490940332829879</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0</v>
+      </c>
       <c r="D42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13"/>
+        <v>39.950164232452892</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="14">
+        <v>56.030080017331819</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
       <c r="D43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="13"/>
+        <v>39.894164211180751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="14">
+        <v>54.347019847363185</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0</v>
+      </c>
       <c r="D44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="13"/>
+        <v>39.83949517843584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="14">
+        <v>56.352013391879566</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0</v>
+      </c>
       <c r="D45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="13"/>
+        <v>39.783240567556206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="14">
+        <v>60.037336508290117</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
       <c r="D46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="13"/>
+        <v>39.724050148984816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="14">
+        <v>67.624516350285006</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0</v>
+      </c>
       <c r="D47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="13"/>
+        <v>39.65876866235503</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="14">
+        <v>81.194812455354167</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
       <c r="D48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="13"/>
+        <v>39.582295098018839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="14">
+        <v>84.422204382523688</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0</v>
+      </c>
       <c r="D49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="13"/>
+        <v>39.503122196591228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="14">
+        <v>88.78953153433379</v>
+      </c>
+      <c r="C50" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="15"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="13"/>
+        <v>39.672200864314206</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="14">
+        <v>94.782824912901319</v>
+      </c>
+      <c r="C51" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D51" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13"/>
+        <v>39.836087177025327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="14">
+        <v>103.89707994869954</v>
+      </c>
+      <c r="C52" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D52" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="13"/>
+        <v>39.991850235315319</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="14">
+        <v>114.85191064184815</v>
+      </c>
+      <c r="C53" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="13"/>
+        <v>40.137485516302654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="14">
+        <v>120.88610420528984</v>
+      </c>
+      <c r="C54" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="13"/>
+        <v>40.277337314809344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="14">
+        <v>110.28436190100096</v>
+      </c>
+      <c r="C55" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="13"/>
+        <v>40.427254137961945</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="14">
+        <v>94.613368134153575</v>
+      </c>
+      <c r="C56" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="13"/>
+        <v>40.591290058904974</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="14">
+        <v>62.432219324741446</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0</v>
+      </c>
       <c r="D57" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="13"/>
+        <v>40.530179900352081</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="14">
+        <v>59.354153507623309</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0</v>
+      </c>
       <c r="D58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="13"/>
+        <v>40.471537121820553</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="14">
+        <v>57.997618787747278</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0</v>
+      </c>
       <c r="D59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="13"/>
+        <v>40.413981142195269</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="14">
+        <v>60.05720890074133</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0</v>
+      </c>
       <c r="D60" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="15"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="13"/>
+        <v>40.354774793898194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="14">
+        <v>60.772757253116303</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0</v>
+      </c>
       <c r="D61" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="13"/>
+        <v>40.294994861469434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="14">
+        <v>65.777091192339199</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0</v>
+      </c>
       <c r="D62" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="13"/>
+        <v>40.231203450951675</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="14">
+        <v>72.701193693925447</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0</v>
+      </c>
       <c r="D63" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
+        <v>40.161773411425322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="14">
+        <v>73.140792043356043</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0</v>
+      </c>
       <c r="D64" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="13"/>
+        <v>40.091984141464884</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="14">
+        <v>63.74033191974695</v>
+      </c>
+      <c r="C65" s="13">
+        <v>0</v>
+      </c>
       <c r="D65" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13"/>
+        <v>40.029825398809386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="14">
+        <v>59.805521205107951</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0</v>
+      </c>
       <c r="D66" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="13"/>
+        <v>39.970820803570469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="14">
+        <v>57.461028969750387</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0</v>
+      </c>
       <c r="D67" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13"/>
+        <v>39.913689166998587</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="14">
+        <v>58.517351417119848</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0</v>
+      </c>
       <c r="D68" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="15"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="13"/>
+        <v>39.85571716969222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="14">
+        <v>59.361088700358835</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0</v>
+      </c>
       <c r="D69" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="13"/>
+        <v>39.797068831904646</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="14">
+        <v>65.451680176906848</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0</v>
+      </c>
       <c r="D70" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="15"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="13"/>
+        <v>39.733538271117176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="14">
+        <v>62.251677678366747</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0</v>
+      </c>
       <c r="D71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="13"/>
+        <v>39.672572834892442</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="14">
+        <v>77.049857670036261</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0</v>
+      </c>
       <c r="D72" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="13"/>
+        <v>39.59956604200724</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="14">
+        <v>81.15330844592043</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0</v>
+      </c>
       <c r="D73" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="13"/>
+        <v>39.523127190936322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="14">
+        <v>88.764710055762492</v>
+      </c>
+      <c r="C74" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D74" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="15"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="13"/>
+        <v>39.692227166736636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="14">
+        <v>91.849136088579527</v>
+      </c>
+      <c r="C75" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D75" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="15"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="13"/>
+        <v>39.858679307185291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="14">
+        <v>94.641568840005789</v>
+      </c>
+      <c r="C76" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D76" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="15"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="13"/>
+        <v>40.022690330583515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="14">
+        <v>98.735946968778151</v>
+      </c>
+      <c r="C77" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D77" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="13"/>
+        <v>40.1830865521597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="14">
+        <v>100.69289680365304</v>
+      </c>
+      <c r="C78" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D78" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="15"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="13"/>
+        <v>40.341755042293826</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="14">
+        <v>96.46374160428951</v>
+      </c>
+      <c r="C79" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D79" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="13"/>
+        <v>40.504157324823169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="14">
+        <v>88.063085722508418</v>
+      </c>
+      <c r="C80" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D80" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="15"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="13"/>
+        <v>40.673859612267009</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="14">
+        <v>79.190064771199161</v>
+      </c>
+      <c r="C81" s="13">
+        <v>0</v>
+      </c>
       <c r="D81" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="15"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="13"/>
+        <v>40.599062785651213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="14">
+        <v>63.138290606128344</v>
+      </c>
+      <c r="C82" s="13">
+        <v>0</v>
+      </c>
       <c r="D82" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="15"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="13"/>
+        <v>40.537386639794327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="14">
+        <v>57.996294610967269</v>
+      </c>
+      <c r="C83" s="13">
+        <v>0</v>
+      </c>
       <c r="D83" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="15"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="13"/>
+        <v>40.479831707347351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="14">
+        <v>57.145614444348951</v>
+      </c>
+      <c r="C84" s="13">
+        <v>0</v>
+      </c>
       <c r="D84" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="13"/>
+        <v>40.42294950518199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="14">
+        <v>57.96982376744689</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0</v>
+      </c>
       <c r="D85" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="15"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="13"/>
+        <v>40.365415506264107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="14">
+        <v>57.996294610967269</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0</v>
+      </c>
       <c r="D86" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="15"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="13"/>
+        <v>40.307860573817131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="14">
+        <v>58.347989150471001</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0</v>
+      </c>
       <c r="D87" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="15"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="13"/>
+        <v>40.250024337439193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="14">
+        <v>58.360053937089447</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0</v>
+      </c>
       <c r="D88" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="15"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="13"/>
+        <v>40.192178429918656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="14">
+        <v>57.472729708714311</v>
+      </c>
+      <c r="C89" s="13">
+        <v>0</v>
+      </c>
       <c r="D89" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="15"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="13"/>
+        <v>40.135037540231764</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="14">
+        <v>57.08397284581126</v>
+      </c>
+      <c r="C90" s="13">
+        <v>0</v>
+      </c>
       <c r="D90" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="15"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="13"/>
+        <v>40.078204085141472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="14">
+        <v>56.333267711916868</v>
+      </c>
+      <c r="C91" s="13">
+        <v>0</v>
+      </c>
       <c r="D91" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="15"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="13"/>
+        <v>40.021964298618933</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="14">
+        <v>52.244497391369059</v>
+      </c>
+      <c r="C92" s="13">
+        <v>0</v>
+      </c>
       <c r="D92" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="15"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="13"/>
+        <v>39.968957971294245</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="14">
+        <v>55.492729823391699</v>
+      </c>
+      <c r="C93" s="13">
+        <v>0</v>
+      </c>
       <c r="D93" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="15"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="13"/>
+        <v>39.913382894391887</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="14">
+        <v>56.030080017331819</v>
+      </c>
+      <c r="C94" s="13">
+        <v>0</v>
+      </c>
       <c r="D94" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="15"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="13"/>
+        <v>39.857382873119747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="14">
+        <v>59.35831442879271</v>
+      </c>
+      <c r="C95" s="13">
+        <v>0</v>
+      </c>
       <c r="D95" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="15"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="13"/>
+        <v>39.798736759190476</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="14">
+        <v>73.634800349762443</v>
+      </c>
+      <c r="C96" s="13">
+        <v>0</v>
+      </c>
       <c r="D96" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="15"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="13"/>
+        <v>39.728543796134787</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="14">
+        <v>81.150715854122907</v>
+      </c>
+      <c r="C97" s="13">
+        <v>0</v>
+      </c>
       <c r="D97" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="15"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="13"/>
+        <v>39.652107113464659</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="14">
+        <v>89.288892673406977</v>
+      </c>
+      <c r="C98" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D98" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="15"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="13"/>
+        <v>39.820757103027354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="14">
+        <v>78.885118712641074</v>
+      </c>
+      <c r="C99" s="13">
+        <v>0</v>
+      </c>
       <c r="D99" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="15"/>
-      <c r="B100" s="14"/>
-      <c r="C100" s="13"/>
+        <v>39.746215328238328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="14">
+        <v>86.553758609300644</v>
+      </c>
+      <c r="C100" s="13">
+        <v>153.01467391304348</v>
+      </c>
       <c r="D100" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="15"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="13"/>
+        <v>39.791213302349661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="14">
+        <v>87.477777659127867</v>
+      </c>
+      <c r="C101" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D101" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="15"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="13"/>
+        <v>39.961418049364696</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="14">
+        <v>88.665562765393389</v>
+      </c>
+      <c r="C102" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D102" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="15"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="13"/>
+        <v>40.13060313847221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="14">
+        <v>86.980540599430043</v>
+      </c>
+      <c r="C103" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D103" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="15"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="13"/>
+        <v>40.301234740224828</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="14">
+        <v>83.10474735541959</v>
+      </c>
+      <c r="C104" s="13">
+        <v>0</v>
+      </c>
       <c r="D104" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="15"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="13"/>
+        <v>40.223163738008672</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="14">
+        <v>72.444093875934158</v>
+      </c>
+      <c r="C105" s="13">
+        <v>0</v>
+      </c>
       <c r="D105" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="15"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="13"/>
+        <v>40.153943794992777</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="14">
+        <v>57.155900989261639</v>
+      </c>
+      <c r="C106" s="13">
+        <v>0</v>
+      </c>
       <c r="D106" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="15"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="13"/>
+        <v>40.097053458077681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="14">
+        <v>53.168530384832458</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0</v>
+      </c>
       <c r="D107" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="15"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="13"/>
+        <v>40.043316391986181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="14">
+        <v>53.540589066388911</v>
+      </c>
+      <c r="C108" s="13">
+        <v>0</v>
+      </c>
       <c r="D108" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="15"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="13"/>
+        <v>39.989285098597072</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="14">
+        <v>54.428534554655144</v>
+      </c>
+      <c r="C109" s="13">
+        <v>0</v>
+      </c>
       <c r="D109" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="13"/>
+        <v>39.934551602832869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="14">
+        <v>53.359514917881633</v>
+      </c>
+      <c r="C110" s="13">
+        <v>0</v>
+      </c>
       <c r="D110" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="15"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="13"/>
+        <v>39.880663503387417</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="14">
+        <v>54.150068379146354</v>
+      </c>
+      <c r="C111" s="13">
+        <v>0</v>
+      </c>
       <c r="D111" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="15"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="13"/>
+        <v>39.826150222735805</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="14">
+        <v>55.462439032003388</v>
+      </c>
+      <c r="C112" s="13">
+        <v>0</v>
+      </c>
       <c r="D112" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="15"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="13"/>
+        <v>39.770599100233028</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="14">
+        <v>54.693387900821534</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0</v>
+      </c>
       <c r="D113" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="15"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="13"/>
+        <v>39.715656154580202</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="14">
+        <v>55.393499523862346</v>
+      </c>
+      <c r="C114" s="13">
+        <v>0</v>
+      </c>
       <c r="D114" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="15"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="13"/>
+        <v>39.660159550445833</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="14">
+        <v>54.877715772246702</v>
+      </c>
+      <c r="C115" s="13">
+        <v>0</v>
+      </c>
       <c r="D115" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="15"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="13"/>
+        <v>39.605070835624147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="14">
+        <v>51.222594980253582</v>
+      </c>
+      <c r="C116" s="13">
+        <v>0</v>
+      </c>
       <c r="D116" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="15"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="13"/>
+        <v>39.55287264362903</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="14">
+        <v>54.276184433361578</v>
+      </c>
+      <c r="C117" s="13">
+        <v>0</v>
+      </c>
       <c r="D117" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="15"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="13"/>
+        <v>39.498259628562536</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="14">
+        <v>56.265886405567613</v>
+      </c>
+      <c r="C118" s="13">
+        <v>0</v>
+      </c>
       <c r="D118" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="15"/>
-      <c r="B119" s="14"/>
-      <c r="C119" s="13"/>
+        <v>39.442073128159713</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="14">
+        <v>58.499832058996709</v>
+      </c>
+      <c r="C119" s="13">
+        <v>0</v>
+      </c>
       <c r="D119" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="15"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="13"/>
+        <v>39.384115174384831</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="14">
+        <v>68.875022577092679</v>
+      </c>
+      <c r="C120" s="13">
+        <v>0</v>
+      </c>
       <c r="D120" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="15"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="13"/>
+        <v>39.317811800627254</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="14">
+        <v>69.314806332462538</v>
+      </c>
+      <c r="C121" s="13">
+        <v>0</v>
+      </c>
       <c r="D121" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="15"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="13"/>
+        <v>39.251149044925796</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="14">
+        <v>83.817716216780681</v>
+      </c>
+      <c r="C122" s="13">
+        <v>0</v>
+      </c>
       <c r="D122" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="15"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="13"/>
+        <v>39.172481727376415</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="14">
+        <v>85.848785280535182</v>
+      </c>
+      <c r="C123" s="13">
+        <v>0</v>
+      </c>
       <c r="D123" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="15"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="13"/>
+        <v>39.092084888087136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="14">
+        <v>88.2129360906291</v>
+      </c>
+      <c r="C124" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D124" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="13"/>
+        <v>39.2616585360052</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="14">
+        <v>93.3032032200461</v>
+      </c>
+      <c r="C125" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D125" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="15"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="13"/>
+        <v>39.426851161671074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="14">
+        <v>94.174904818364851</v>
+      </c>
+      <c r="C126" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D126" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="15"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="13"/>
+        <v>39.591274188529326</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="14">
+        <v>94.437493778933572</v>
+      </c>
+      <c r="C127" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D127" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="15"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="13"/>
+        <v>39.755465383587172</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="14">
+        <v>93.430179037286862</v>
+      </c>
+      <c r="C128" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D128" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="15"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="13"/>
+        <v>39.920545906168996</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="14">
+        <v>90.630073771434112</v>
+      </c>
+      <c r="C129" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D129" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="15"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="13"/>
+        <v>40.088044554546478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="14">
+        <v>84.921760753736123</v>
+      </c>
+      <c r="C130" s="13">
+        <v>0</v>
+      </c>
       <c r="D130" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="15"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="13"/>
+        <v>40.008443522414773</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="14">
+        <v>76.263351377019205</v>
+      </c>
+      <c r="C131" s="13">
+        <v>0</v>
+      </c>
       <c r="D131" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="15"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="13"/>
+        <v>39.936094550351235</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="14">
+        <v>66.045597037668159</v>
+      </c>
+      <c r="C132" s="13">
+        <v>0</v>
+      </c>
       <c r="D132" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="15"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="13"/>
+        <v>39.872087905333068</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="14">
+        <v>62.361714277508547</v>
+      </c>
+      <c r="C133" s="13">
+        <v>0</v>
+      </c>
       <c r="D133" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="15"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="13"/>
+        <v>39.811034263682437</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="14">
+        <v>63.444220681995979</v>
+      </c>
+      <c r="C134" s="13">
+        <v>0</v>
+      </c>
       <c r="D134" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="15"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="13"/>
+        <v>39.749112884032002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="14">
+        <v>65.790720219263278</v>
+      </c>
+      <c r="C135" s="13">
+        <v>0</v>
+      </c>
       <c r="D135" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="15"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="13"/>
+        <v>39.685310548475357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="14">
+        <v>69.804333818789644</v>
+      </c>
+      <c r="C136" s="13">
+        <v>0</v>
+      </c>
       <c r="D136" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="15"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="13"/>
+        <v>39.61824776130964</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="14">
+        <v>69.580620365019186</v>
+      </c>
+      <c r="C137" s="13">
+        <v>0</v>
+      </c>
       <c r="D137" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="15"/>
-      <c r="B138" s="14"/>
-      <c r="C138" s="13"/>
+        <v>39.551367788026674</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="14">
+        <v>66.584002822169211</v>
+      </c>
+      <c r="C138" s="13">
+        <v>0</v>
+      </c>
       <c r="D138" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="15"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="13"/>
+        <v>39.486929556500939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="14">
+        <v>62.169404725170843</v>
+      </c>
+      <c r="C139" s="13">
+        <v>0</v>
+      </c>
       <c r="D139" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="15"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="13"/>
+        <v>39.426030070341305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="14">
+        <v>58.005565118417863</v>
+      </c>
+      <c r="C140" s="13">
+        <v>0</v>
+      </c>
       <c r="D140" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="13"/>
+        <v>39.368467806641846</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="14">
+        <v>58.977936096256222</v>
+      </c>
+      <c r="C141" s="13">
+        <v>0</v>
+      </c>
       <c r="D141" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="13"/>
+        <v>39.310126604288229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="14">
+        <v>62.254729006831745</v>
+      </c>
+      <c r="C142" s="13">
+        <v>0</v>
+      </c>
       <c r="D142" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="13"/>
+        <v>39.249158722116157</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="14">
+        <v>72.84713816076156</v>
+      </c>
+      <c r="C143" s="13">
+        <v>0</v>
+      </c>
       <c r="D143" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="13"/>
+        <v>39.179609419871369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="14">
+        <v>81.604333965103947</v>
+      </c>
+      <c r="C144" s="13">
+        <v>0</v>
+      </c>
       <c r="D144" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="15"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="13"/>
+        <v>39.102793338535086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="14">
+        <v>88.145593298138493</v>
+      </c>
+      <c r="C145" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D145" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="15"/>
-      <c r="B146" s="14"/>
-      <c r="C146" s="13"/>
+        <v>39.272424797087844</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="14">
+        <v>95.542171274147336</v>
+      </c>
+      <c r="C146" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D146" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="13"/>
+        <v>39.435640706010197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="14">
+        <v>104.43100261740484</v>
+      </c>
+      <c r="C147" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D147" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="13"/>
+        <v>39.590918285743591</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="14">
+        <v>105.64713473905154</v>
+      </c>
+      <c r="C148" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D148" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="13"/>
+        <v>39.745090076002867</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="14">
+        <v>104.12279503466777</v>
+      </c>
+      <c r="C149" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D149" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="15"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="13"/>
+        <v>39.900647898889751</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="14">
+        <v>108.29551959693704</v>
+      </c>
+      <c r="C150" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D150" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="15"/>
-      <c r="B151" s="14"/>
-      <c r="C151" s="13"/>
+        <v>40.05241159873917</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="14">
+        <v>108.67078963275959</v>
+      </c>
+      <c r="C151" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D151" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="15"/>
-      <c r="B152" s="14"/>
-      <c r="C152" s="13"/>
+        <v>40.203834077722718</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="14">
+        <v>108.2585964739923</v>
+      </c>
+      <c r="C152" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D152" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="13"/>
+        <v>40.355631350569659</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="14">
+        <v>107.45715587231928</v>
+      </c>
+      <c r="C153" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D153" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="13"/>
+        <v>40.508157347348551</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="14">
+        <v>103.72314037018192</v>
+      </c>
+      <c r="C154" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D154" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="13"/>
+        <v>40.664078563252858</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="14">
+        <v>94.234296915928013</v>
+      </c>
+      <c r="C155" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D155" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="13"/>
+        <v>40.82844915463599</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="14">
+        <v>83.704475159513464</v>
+      </c>
+      <c r="C156" s="13">
+        <v>0</v>
+      </c>
       <c r="D156" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
-      <c r="B157" s="14"/>
-      <c r="C157" s="13"/>
+        <v>40.74987655002915</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="14">
+        <v>81.158494126513801</v>
+      </c>
+      <c r="C157" s="13">
+        <v>0</v>
+      </c>
       <c r="D157" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="13"/>
+        <v>40.673433361740969</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="14">
+        <v>77.520132680229352</v>
+      </c>
+      <c r="C158" s="13">
+        <v>0</v>
+      </c>
       <c r="D158" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="13"/>
+        <v>40.600033238635319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="14">
+        <v>77.812213437456123</v>
+      </c>
+      <c r="C159" s="13">
+        <v>0</v>
+      </c>
       <c r="D159" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="13"/>
+        <v>40.526388824027592</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="14">
+        <v>81.223371096302202</v>
+      </c>
+      <c r="C160" s="13">
+        <v>0</v>
+      </c>
       <c r="D160" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="13"/>
+        <v>40.449891373717669</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="14">
+        <v>80.413425802201886</v>
+      </c>
+      <c r="C161" s="13">
+        <v>0</v>
+      </c>
       <c r="D161" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="13"/>
+        <v>40.374071348221257</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="14">
+        <v>78.277393845051165</v>
+      </c>
+      <c r="C162" s="13">
+        <v>0</v>
+      </c>
       <c r="D162" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="13"/>
+        <v>40.300037864434223</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="14">
+        <v>72.65960262201817</v>
+      </c>
+      <c r="C163" s="13">
+        <v>0</v>
+      </c>
       <c r="D163" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="13"/>
+        <v>40.230641812248436</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="14">
+        <v>63.19798247663222</v>
+      </c>
+      <c r="C164" s="13">
+        <v>0</v>
+      </c>
       <c r="D164" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
-      <c r="B165" s="14"/>
-      <c r="C165" s="13"/>
+        <v>40.1689178173404</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="14">
+        <v>60.682745046960228</v>
+      </c>
+      <c r="C165" s="13">
+        <v>0</v>
+      </c>
       <c r="D165" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="13"/>
+        <v>40.109210038768104</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="14">
+        <v>63.305081684338212</v>
+      </c>
+      <c r="C166" s="13">
+        <v>0</v>
+      </c>
       <c r="D166" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="15"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="13"/>
+        <v>40.047400193049498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="14">
+        <v>68.185421905453239</v>
+      </c>
+      <c r="C167" s="13">
+        <v>0</v>
+      </c>
       <c r="D167" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="13"/>
+        <v>39.98166034631366</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="14">
+        <v>78.558209607723995</v>
+      </c>
+      <c r="C168" s="13">
+        <v>0</v>
+      </c>
       <c r="D168" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="13"/>
+        <v>39.907391992879198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="14">
+        <v>81.426455560512736</v>
+      </c>
+      <c r="C169" s="13">
+        <v>0</v>
+      </c>
       <c r="D169" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
-      <c r="B170" s="14"/>
-      <c r="C170" s="13"/>
+        <v>39.830724686090988</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="14">
+        <v>88.560461167442583</v>
+      </c>
+      <c r="C170" s="13">
+        <v>306.02934782608696</v>
+      </c>
       <c r="D170" s="12">
         <v>40</v>
       </c>
